--- a/Planilhas/IDADE TRABALHO NACIONAL.xlsx
+++ b/Planilhas/IDADE TRABALHO NACIONAL.xlsx
@@ -516,32 +516,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>43472</t>
+          <t>43626</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14221</t>
+          <t>14155</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>23804</t>
+          <t>23471</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>48316</t>
+          <t>48376</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>45210</t>
+          <t>45105</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22050</t>
+          <t>21925</t>
         </is>
       </c>
     </row>
@@ -571,32 +571,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>43323</t>
+          <t>43498</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14216</t>
+          <t>14137</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>23804</t>
+          <t>23453</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>48481</t>
+          <t>48513</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>45434</t>
+          <t>45336</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22245</t>
+          <t>22124</t>
         </is>
       </c>
     </row>
@@ -626,32 +626,32 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>43173</t>
+          <t>43367</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14136</t>
+          <t>14045</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23873</t>
+          <t>23513</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>48642</t>
+          <t>48644</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>45658</t>
+          <t>45568</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>22450</t>
+          <t>22333</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>43030</t>
+          <t>43234</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14079</t>
+          <t>13978</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23914</t>
+          <t>23556</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>48797</t>
+          <t>48766</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>45880</t>
+          <t>45796</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22660</t>
+          <t>22546</t>
         </is>
       </c>
     </row>
@@ -736,32 +736,32 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>42887</t>
+          <t>43101</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14041</t>
+          <t>13930</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23936</t>
+          <t>23577</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>48953</t>
+          <t>48886</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>46102</t>
+          <t>46022</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>22870</t>
+          <t>22759</t>
         </is>
       </c>
     </row>
@@ -791,32 +791,32 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>42751</t>
+          <t>42971</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13988</t>
+          <t>13866</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23975</t>
+          <t>23615</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>49107</t>
+          <t>49001</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>46321</t>
+          <t>46240</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23075</t>
+          <t>22965</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>42623</t>
+          <t>42844</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13948</t>
+          <t>13818</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>23991</t>
+          <t>23636</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>49252</t>
+          <t>49109</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>46543</t>
+          <t>46461</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23289</t>
+          <t>23181</t>
         </is>
       </c>
     </row>
@@ -901,32 +901,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>42509</t>
+          <t>42725</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13912</t>
+          <t>13779</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>23993</t>
+          <t>23647</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>49386</t>
+          <t>49206</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>46765</t>
+          <t>46677</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23509</t>
+          <t>23402</t>
         </is>
       </c>
     </row>
@@ -956,32 +956,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>42395</t>
+          <t>42606</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13936</t>
+          <t>13798</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>23935</t>
+          <t>23600</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>49520</t>
+          <t>49301</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>46987</t>
+          <t>46892</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>23729</t>
+          <t>23622</t>
         </is>
       </c>
     </row>
@@ -1011,32 +1011,32 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>42288</t>
+          <t>42489</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>13758</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>23941</t>
+          <t>23612</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>49653</t>
+          <t>49391</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>47205</t>
+          <t>47100</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23835</t>
         </is>
       </c>
     </row>
@@ -1066,32 +1066,32 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>42189</t>
+          <t>42383</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13965</t>
+          <t>13821</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23835</t>
+          <t>23512</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>49773</t>
+          <t>49472</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>47428</t>
+          <t>47312</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>24166</t>
+          <t>24058</t>
         </is>
       </c>
     </row>
@@ -1121,32 +1121,32 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>42104</t>
+          <t>42293</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13972</t>
+          <t>13825</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23780</t>
+          <t>23463</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>49879</t>
+          <t>49539</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>47653</t>
+          <t>47521</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>24395</t>
+          <t>24285</t>
         </is>
       </c>
     </row>
@@ -1176,32 +1176,32 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>42020</t>
+          <t>42203</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13882</t>
+          <t>13734</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>23822</t>
+          <t>23510</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>49984</t>
+          <t>49605</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>47878</t>
+          <t>47730</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>24623</t>
+          <t>24512</t>
         </is>
       </c>
     </row>
@@ -1231,32 +1231,32 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>41940</t>
+          <t>42114</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13856</t>
+          <t>13706</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>23804</t>
+          <t>23492</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>50090</t>
+          <t>49667</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>48099</t>
+          <t>47931</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>24845</t>
+          <t>24731</t>
         </is>
       </c>
     </row>
@@ -1286,32 +1286,32 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>41866</t>
+          <t>42026</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13851</t>
+          <t>13705</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>23749</t>
+          <t>23441</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>50186</t>
+          <t>49722</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>48327</t>
+          <t>48143</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>25079</t>
+          <t>24962</t>
         </is>
       </c>
     </row>
@@ -1341,32 +1341,32 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>41802</t>
+          <t>41940</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13716</t>
+          <t>13585</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23814</t>
+          <t>23500</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>50271</t>
+          <t>49766</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>48561</t>
+          <t>48359</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>25319</t>
+          <t>25200</t>
         </is>
       </c>
     </row>
@@ -1396,32 +1396,32 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>41738</t>
+          <t>41853</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13677</t>
+          <t>13560</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>23780</t>
+          <t>23465</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>50356</t>
+          <t>49809</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>48794</t>
+          <t>48575</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>25558</t>
+          <t>25436</t>
         </is>
       </c>
     </row>
@@ -1451,32 +1451,32 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>41678</t>
+          <t>41768</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13638</t>
+          <t>13528</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>23751</t>
+          <t>23436</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>50441</t>
+          <t>49850</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>49024</t>
+          <t>48785</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>25794</t>
+          <t>25667</t>
         </is>
       </c>
     </row>
@@ -1506,32 +1506,32 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>41618</t>
+          <t>41682</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13545</t>
+          <t>13449</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23771</t>
+          <t>23446</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>50513</t>
+          <t>49881</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>49260</t>
+          <t>49007</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>26039</t>
+          <t>25909</t>
         </is>
       </c>
     </row>
@@ -1561,32 +1561,32 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>41562</t>
+          <t>41597</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13489</t>
+          <t>13411</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>23751</t>
+          <t>23406</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>50574</t>
+          <t>49902</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>49499</t>
+          <t>49236</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>26290</t>
+          <t>26158</t>
         </is>
       </c>
     </row>
@@ -1616,32 +1616,32 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>41506</t>
+          <t>41511</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13380</t>
+          <t>13320</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23784</t>
+          <t>23418</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>50634</t>
+          <t>49922</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>49738</t>
+          <t>49464</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>26541</t>
+          <t>26406</t>
         </is>
       </c>
     </row>
@@ -1671,32 +1671,32 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>41455</t>
+          <t>41427</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13225</t>
+          <t>13178</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>23868</t>
+          <t>23483</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>50695</t>
+          <t>49940</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>49972</t>
+          <t>49684</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>26785</t>
+          <t>26645</t>
         </is>
       </c>
     </row>
@@ -1726,32 +1726,32 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>41408</t>
+          <t>41350</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13107</t>
+          <t>13077</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23906</t>
+          <t>23496</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>50744</t>
+          <t>49944</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>50211</t>
+          <t>49916</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>27040</t>
+          <t>26897</t>
         </is>
       </c>
     </row>
@@ -1781,32 +1781,32 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>41370</t>
+          <t>41283</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12963</t>
+          <t>12951</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>23967</t>
+          <t>23526</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>50780</t>
+          <t>49933</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>50450</t>
+          <t>50152</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>27299</t>
+          <t>27154</t>
         </is>
       </c>
     </row>
@@ -1836,32 +1836,32 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>41332</t>
+          <t>41215</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12861</t>
+          <t>12864</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>23986</t>
+          <t>23516</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>50816</t>
+          <t>49922</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>50689</t>
+          <t>50387</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>27557</t>
+          <t>27410</t>
         </is>
       </c>
     </row>
@@ -1891,32 +1891,32 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>41298</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12775</t>
+          <t>12790</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>23993</t>
+          <t>23495</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>50854</t>
+          <t>49909</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>50923</t>
+          <t>50614</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>27808</t>
+          <t>27657</t>
         </is>
       </c>
     </row>
@@ -1946,32 +1946,32 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>41260</t>
+          <t>41080</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12642</t>
+          <t>12668</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>24040</t>
+          <t>23520</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>50885</t>
+          <t>49888</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>51163</t>
+          <t>50850</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>28071</t>
+          <t>27915</t>
         </is>
       </c>
     </row>
@@ -2001,32 +2001,32 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>41222</t>
+          <t>41012</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12565</t>
+          <t>12598</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>24028</t>
+          <t>23491</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>50910</t>
+          <t>49859</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>51404</t>
+          <t>51089</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>28339</t>
+          <t>28176</t>
         </is>
       </c>
     </row>
@@ -2056,32 +2056,32 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>41183</t>
+          <t>40942</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12488</t>
+          <t>12528</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>24017</t>
+          <t>23463</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>50935</t>
+          <t>49828</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>51644</t>
+          <t>51326</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>28606</t>
+          <t>28436</t>
         </is>
       </c>
     </row>
@@ -2111,32 +2111,32 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>41148</t>
+          <t>40874</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12463</t>
+          <t>12508</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>23958</t>
+          <t>23387</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>50961</t>
+          <t>49797</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>51879</t>
+          <t>51555</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>28867</t>
+          <t>28687</t>
         </is>
       </c>
     </row>
@@ -2166,32 +2166,32 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>41113</t>
+          <t>40798</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12497</t>
+          <t>12545</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>23827</t>
+          <t>23255</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>50983</t>
+          <t>49765</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>52120</t>
+          <t>51793</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>29138</t>
+          <t>28944</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>41080</t>
+          <t>40716</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12441</t>
+          <t>12493</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>23779</t>
+          <t>23216</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>51003</t>
+          <t>49733</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>52360</t>
+          <t>52031</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>29413</t>
+          <t>29197</t>
         </is>
       </c>
     </row>
@@ -2276,32 +2276,32 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>41048</t>
+          <t>40634</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12414</t>
+          <t>12466</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>23701</t>
+          <t>23151</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>51022</t>
+          <t>49700</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>52600</t>
+          <t>52269</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>29689</t>
+          <t>29449</t>
         </is>
       </c>
     </row>
@@ -2331,32 +2331,32 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>41017</t>
+          <t>40552</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12430</t>
+          <t>12484</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>23584</t>
+          <t>23044</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>51043</t>
+          <t>49666</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>52837</t>
+          <t>52501</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>29959</t>
+          <t>29696</t>
         </is>
       </c>
     </row>
@@ -2386,32 +2386,32 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>40992</t>
+          <t>40475</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12435</t>
+          <t>12495</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>23462</t>
+          <t>22937</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>51058</t>
+          <t>49635</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>53076</t>
+          <t>52736</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30239</t>
+          <t>29941</t>
         </is>
       </c>
     </row>
@@ -2441,32 +2441,32 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>40974</t>
+          <t>40404</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12557</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>23211</t>
+          <t>22711</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>51071</t>
+          <t>49606</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>53317</t>
+          <t>52970</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>30523</t>
+          <t>30177</t>
         </is>
       </c>
     </row>
@@ -2496,32 +2496,32 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>40956</t>
+          <t>40332</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12450</t>
+          <t>12525</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>23187</t>
+          <t>22707</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>51083</t>
+          <t>49576</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>53557</t>
+          <t>53204</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>30807</t>
+          <t>30414</t>
         </is>
       </c>
     </row>
@@ -2551,32 +2551,32 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>40940</t>
+          <t>40262</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12252</t>
+          <t>12330</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>23262</t>
+          <t>22804</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>51098</t>
+          <t>49547</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>53791</t>
+          <t>53428</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>31083</t>
+          <t>30642</t>
         </is>
       </c>
     </row>
@@ -2606,32 +2606,32 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>40922</t>
+          <t>40185</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12201</t>
+          <t>12281</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>23176</t>
+          <t>22746</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>51107</t>
+          <t>49514</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>54031</t>
+          <t>53662</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>31371</t>
+          <t>30885</t>
         </is>
       </c>
     </row>
@@ -2661,32 +2661,32 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>40905</t>
+          <t>40102</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12162</t>
+          <t>12238</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>23073</t>
+          <t>22678</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>51114</t>
+          <t>49479</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>54270</t>
+          <t>53896</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>31664</t>
+          <t>31136</t>
         </is>
       </c>
     </row>
@@ -2716,32 +2716,32 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>40888</t>
+          <t>40019</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12147</t>
+          <t>12217</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>22945</t>
+          <t>22587</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>51121</t>
+          <t>49444</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>54509</t>
+          <t>54130</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>31955</t>
+          <t>31387</t>
         </is>
       </c>
     </row>
@@ -2771,32 +2771,32 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>40872</t>
+          <t>39937</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12130</t>
+          <t>12191</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22827</t>
+          <t>22503</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>51129</t>
+          <t>49408</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>54743</t>
+          <t>54355</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>32239</t>
+          <t>31629</t>
         </is>
       </c>
     </row>
@@ -2826,32 +2826,32 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>40854</t>
+          <t>39844</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12142</t>
+          <t>12198</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>22671</t>
+          <t>22378</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>51131</t>
+          <t>49366</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>54980</t>
+          <t>54588</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>32534</t>
+          <t>31897</t>
         </is>
       </c>
     </row>
@@ -2881,32 +2881,32 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>40836</t>
+          <t>39740</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12150</t>
+          <t>12202</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>22517</t>
+          <t>22252</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>51128</t>
+          <t>49317</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>55217</t>
+          <t>54819</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>32833</t>
+          <t>32182</t>
         </is>
       </c>
     </row>
@@ -2936,32 +2936,32 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>40817</t>
+          <t>39636</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12140</t>
+          <t>12183</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>22381</t>
+          <t>22146</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>51125</t>
+          <t>49268</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>55452</t>
+          <t>55051</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>33131</t>
+          <t>32468</t>
         </is>
       </c>
     </row>
@@ -2991,32 +2991,32 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>40801</t>
+          <t>39535</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12100</t>
+          <t>12133</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>22280</t>
+          <t>22076</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>51124</t>
+          <t>49220</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>55682</t>
+          <t>55273</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>33420</t>
+          <t>32743</t>
         </is>
       </c>
     </row>
@@ -3046,32 +3046,32 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>40785</t>
+          <t>39430</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12034</t>
+          <t>12065</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>22201</t>
+          <t>22017</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>51113</t>
+          <t>49169</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>55914</t>
+          <t>55496</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>33720</t>
+          <t>33035</t>
         </is>
       </c>
     </row>
@@ -3101,32 +3101,32 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>40771</t>
+          <t>39326</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11957</t>
+          <t>11981</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>22136</t>
+          <t>21971</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>51095</t>
+          <t>49117</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>56143</t>
+          <t>55712</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>34021</t>
+          <t>33334</t>
         </is>
       </c>
     </row>
